--- a/229-index-ajout-rg-sur-la-stu-note/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/229-index-ajout-rg-sur-la-stu-note/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:02:07+00:00</t>
+    <t>2025-01-06T13:07:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
